--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655611.5442841679</v>
+        <v>657551.6241539506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592088</v>
+        <v>925407.2786592086</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
-        <v>274.2838073416025</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="D2" t="n">
-        <v>151.0570449507884</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.51395501017522</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>135.2073197164398</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.3977678162259</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>58.24548272417993</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>145.8355658494302</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U8" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>274.2838073416025</v>
@@ -1215,7 +1217,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>95.51395501017522</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -1224,13 +1226,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>50.48206958852121</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.62406031006286</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>109.8489596931843</v>
       </c>
       <c r="X11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>125.9059726800905</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>188.9237307687901</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="15">
@@ -1692,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.1569312061696</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.96478317550041</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>274.2838073416025</v>
@@ -1974,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1986,10 +1988,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>159.5028127661658</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
-        <v>41.43010407512111</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>76.39724522490081</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2223,10 +2225,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>18.62406031006297</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>49.04029724403301</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.2506625471216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F26" t="n">
+      <c r="Y26" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>154.2141932558487</v>
       </c>
       <c r="U27" t="n">
-        <v>146.9796457458702</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.43010407512099</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>146.3505839606585</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>25.62786097985149</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,67 +2949,67 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W32" t="n">
-        <v>173.8630887158465</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3156,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>209.1192782275131</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>104.1244481218602</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>20.27526249803175</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>163.8766752593069</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>150.3977678162261</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>37.05763646578577</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V39" t="n">
-        <v>135.2073197164398</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2819443339098</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3825,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>65.82870076221839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E44" t="n">
         <v>274.2838073416025</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>99.07907767104379</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451.5799291250968</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="C2" t="n">
-        <v>174.5255782749932</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D2" t="n">
         <v>21.9427045873282</v>
@@ -4355,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6342799752003</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6342799752003</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>451.5799291250968</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W2" t="n">
-        <v>451.5799291250968</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="X2" t="n">
-        <v>451.5799291250968</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.5799291250968</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>930.0926782448495</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="C3" t="n">
-        <v>757.3395631666667</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4416,43 +4418,43 @@
         <v>21.9427045873282</v>
       </c>
       <c r="M3" t="n">
-        <v>293.4836738555147</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>565.0246431237011</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>832.9042621010219</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1031.474731936019</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>266.9295502162631</v>
       </c>
       <c r="Y3" t="n">
-        <v>1097.13522936641</v>
+        <v>266.9295502162631</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I4" t="n">
         <v>126.6025577647144</v>
@@ -4507,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C5" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D5" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E5" t="n">
-        <v>299.6629919369898</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="F5" t="n">
-        <v>299.6629919369898</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G5" t="n">
-        <v>299.6629919369898</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H5" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K5" t="n">
         <v>143.241092649432</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>801.9346328844877</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X5" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>80.77652552084328</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
         <v>21.9427045873282</v>
@@ -4650,19 +4652,19 @@
         <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>168.577974491964</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>277.9660032696079</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4677,19 +4679,19 @@
         <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>630.4290419169106</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>630.4290419169106</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W6" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X6" t="n">
-        <v>423.9021433224881</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y6" t="n">
-        <v>218.1737075461386</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I7" t="n">
         <v>126.6025577647144</v>
@@ -4744,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="8">
@@ -4808,7 +4810,7 @@
         <v>143.241092649432</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M8" t="n">
         <v>586.1689795623907</v>
@@ -4832,22 +4834,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U8" t="n">
-        <v>853.1057571376389</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V8" t="n">
-        <v>853.1057571376389</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W8" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X8" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>695.8414347704503</v>
+        <v>930.0926782448495</v>
       </c>
       <c r="C9" t="n">
-        <v>523.0883196922675</v>
+        <v>757.3395631666667</v>
       </c>
       <c r="D9" t="n">
-        <v>375.5000130512114</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>217.8904840540661</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>72.93469407068295</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4884,19 +4886,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>277.4136198757311</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M9" t="n">
-        <v>548.9545891439176</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377944</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4917,16 +4919,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8839858920107</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8839858920107</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8839858920107</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8839858920107</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4981,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="11">
@@ -5066,25 +5068,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>1078.323047235033</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T11" t="n">
-        <v>853.1057571376389</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U11" t="n">
-        <v>853.1057571376389</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V11" t="n">
-        <v>853.1057571376389</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="W11" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X11" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
@@ -5124,46 +5126,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>416.655578933882</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M12" t="n">
-        <v>557.7146411209028</v>
+        <v>440.1189437601505</v>
       </c>
       <c r="N12" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O12" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P12" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U12" t="n">
-        <v>630.4290419169106</v>
+        <v>699.5404910100002</v>
       </c>
       <c r="V12" t="n">
-        <v>630.4290419169106</v>
+        <v>465.2892475356011</v>
       </c>
       <c r="W12" t="n">
-        <v>630.4290419169106</v>
+        <v>212.7747558689344</v>
       </c>
       <c r="X12" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y12" t="n">
-        <v>630.4290419169106</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>177.254368019049</v>
+        <v>33.07759116460122</v>
       </c>
       <c r="H13" t="n">
-        <v>177.254368019049</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
         <v>21.9427045873282</v>
@@ -5221,28 +5223,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.254368019049</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C14" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D14" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E14" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F14" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
         <v>21.9427045873282</v>
@@ -5291,10 +5293,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P14" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q14" t="n">
         <v>1097.13522936641</v>
@@ -5309,19 +5311,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U14" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V14" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W14" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="X14" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y14" t="n">
-        <v>576.0514062875353</v>
+        <v>265.9721768160992</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351499</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351499</v>
       </c>
       <c r="D15" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351499</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9427045873282</v>
+        <v>130.1820290380046</v>
       </c>
       <c r="F15" t="n">
         <v>21.9427045873282</v>
@@ -5355,52 +5357,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K15" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4136198757311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M15" t="n">
-        <v>548.9545891439176</v>
+        <v>277.9660032696081</v>
       </c>
       <c r="N15" t="n">
-        <v>820.4955584121041</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O15" t="n">
-        <v>1088.375177389425</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U15" t="n">
-        <v>870.2087878843885</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="V15" t="n">
-        <v>635.9575444099894</v>
+        <v>540.3060497018166</v>
       </c>
       <c r="W15" t="n">
-        <v>383.4430527433227</v>
+        <v>287.7915580351499</v>
       </c>
       <c r="X15" t="n">
-        <v>176.9161541489002</v>
+        <v>287.7915580351499</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351499</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
         <v>21.9427045873282</v>
@@ -5440,7 +5442,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M16" t="n">
         <v>108.7246574309869</v>
@@ -5461,25 +5463,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C17" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D17" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
@@ -5531,7 +5533,7 @@
         <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q17" t="n">
         <v>1097.13522936641</v>
@@ -5540,25 +5542,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>1078.988983734591</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>576.7173427870933</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>299.6629919369898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>22.60864108688619</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.60864108688619</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K18" t="n">
-        <v>168.577974491964</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L18" t="n">
-        <v>416.655578933882</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M18" t="n">
-        <v>630.6851405540922</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5622,19 +5624,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>669.8223920174504</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V18" t="n">
-        <v>435.5711485430513</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W18" t="n">
-        <v>183.0566568763846</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X18" t="n">
-        <v>21.9427045873282</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y18" t="n">
         <v>21.9427045873282</v>
@@ -5677,7 +5679,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M19" t="n">
         <v>108.7246574309869</v>
@@ -5704,7 +5706,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
         <v>21.9427045873282</v>
@@ -5774,10 +5776,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1055.28663939154</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T20" t="n">
         <v>830.0693492941459</v>
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>306.2741181727158</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
         <v>21.9427045873282</v>
@@ -5829,13 +5831,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
         <v>630.6851405540922</v>
@@ -5853,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1019.966294795803</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>1019.966294795803</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>1019.966294795803</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="U21" t="n">
-        <v>793.0398533137816</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V21" t="n">
-        <v>558.7886098393825</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W21" t="n">
-        <v>306.2741181727158</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X21" t="n">
-        <v>306.2741181727158</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y21" t="n">
-        <v>306.2741181727158</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5931,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
         <v>21.9427045873282</v>
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.8092375688085</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C23" t="n">
-        <v>317.8092375688085</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D23" t="n">
-        <v>40.75488671870494</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E23" t="n">
-        <v>40.75488671870494</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>40.75488671870494</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G23" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
-        <v>40.75488671870494</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K23" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6017,22 +6019,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>594.8635884189121</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X23" t="n">
-        <v>317.8092375688085</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.8092375688085</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>479.6813083318625</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="C24" t="n">
-        <v>306.9281932536796</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="D24" t="n">
-        <v>159.3398866126235</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="E24" t="n">
-        <v>159.3398866126235</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="F24" t="n">
-        <v>159.3398866126235</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="G24" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6066,52 +6068,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>168.577974491964</v>
+        <v>29.88839882768988</v>
       </c>
       <c r="L24" t="n">
-        <v>416.655578933882</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="M24" t="n">
-        <v>688.1965482020685</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N24" t="n">
-        <v>959.7375174702549</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O24" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>830.8154377838487</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U24" t="n">
-        <v>830.8154377838487</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V24" t="n">
-        <v>830.8154377838487</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W24" t="n">
-        <v>830.8154377838487</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X24" t="n">
-        <v>830.8154377838487</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="Y24" t="n">
-        <v>646.7238594534228</v>
+        <v>183.0566568763846</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C26" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D26" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E26" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F26" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G26" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6227,7 +6229,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K26" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L26" t="n">
         <v>345.6915471007955</v>
@@ -6242,7 +6244,7 @@
         <v>984.9899813536998</v>
       </c>
       <c r="P26" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q26" t="n">
         <v>1097.13522936641</v>
@@ -6260,16 +6262,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="X26" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="Y26" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F27" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G27" t="n">
         <v>21.9427045873282</v>
@@ -6303,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M27" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859059</v>
       </c>
       <c r="N27" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O27" t="n">
-        <v>1088.375177389425</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6333,22 +6335,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>941.363316986765</v>
       </c>
       <c r="U27" t="n">
-        <v>948.6709407342178</v>
+        <v>714.4368755047435</v>
       </c>
       <c r="V27" t="n">
-        <v>714.4196972598186</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W27" t="n">
-        <v>461.9052055931519</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X27" t="n">
-        <v>461.9052055931519</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6388,7 +6390,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M28" t="n">
         <v>108.7246574309869</v>
@@ -6409,16 +6411,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
         <v>21.9427045873282</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C29" t="n">
-        <v>340.8456454123015</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D29" t="n">
-        <v>340.8456454123015</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E29" t="n">
-        <v>340.8456454123015</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F29" t="n">
-        <v>340.8456454123015</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G29" t="n">
-        <v>340.8456454123015</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H29" t="n">
-        <v>63.79129456219789</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I29" t="n">
         <v>21.9427045873282</v>
@@ -6464,7 +6466,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L29" t="n">
         <v>345.6915471007954</v>
@@ -6479,7 +6481,7 @@
         <v>984.9899813536997</v>
       </c>
       <c r="P29" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q29" t="n">
         <v>1097.13522936641</v>
@@ -6491,22 +6493,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T29" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X29" t="n">
-        <v>617.899996262405</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y29" t="n">
-        <v>340.8456454123015</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.5522335844735</v>
+        <v>490.112998994101</v>
       </c>
       <c r="C30" t="n">
-        <v>179.5522335844735</v>
+        <v>317.3598839159181</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>169.771577274862</v>
       </c>
       <c r="E30" t="n">
         <v>21.9427045873282</v>
@@ -6540,22 +6542,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4136198757311</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M30" t="n">
-        <v>359.1441712859057</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890895</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6573,19 +6575,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U30" t="n">
-        <v>870.2087878843885</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V30" t="n">
-        <v>844.3220596219122</v>
+        <v>862.883985892011</v>
       </c>
       <c r="W30" t="n">
-        <v>591.8075679552455</v>
+        <v>862.883985892011</v>
       </c>
       <c r="X30" t="n">
-        <v>385.280669360823</v>
+        <v>862.883985892011</v>
       </c>
       <c r="Y30" t="n">
-        <v>179.5522335844735</v>
+        <v>657.1555501156614</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C32" t="n">
         <v>21.9427045873282</v>
@@ -6701,49 +6703,49 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P32" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q32" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>474.6163369685898</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>197.5619861184862</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W32" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X32" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M33" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N33" t="n">
-        <v>959.7375174702549</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
         <v>1097.13522936641</v>
@@ -6804,10 +6806,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T33" t="n">
-        <v>942.1617798048379</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U33" t="n">
         <v>715.2353383228165</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>169.5780797487469</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
         <v>21.9427045873282</v>
@@ -6886,22 +6888,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.9427045873282</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6950,7 +6952,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134284</v>
@@ -6962,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W35" t="n">
-        <v>853.1057571376389</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X35" t="n">
-        <v>576.0514062875353</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9970554374318</v>
+        <v>889.1908336860672</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>432.3654033289712</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C36" t="n">
-        <v>432.3654033289712</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D36" t="n">
-        <v>432.3654033289712</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E36" t="n">
-        <v>274.7558743318259</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
-        <v>129.8000843484428</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>129.8000843484428</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M36" t="n">
-        <v>359.1441712859057</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N36" t="n">
         <v>630.6851405540922</v>
@@ -7044,22 +7046,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>931.6032341549889</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>931.6032341549889</v>
       </c>
       <c r="V36" t="n">
-        <v>1097.13522936641</v>
+        <v>931.6032341549889</v>
       </c>
       <c r="W36" t="n">
-        <v>844.6207376997432</v>
+        <v>931.6032341549889</v>
       </c>
       <c r="X36" t="n">
-        <v>638.0938391053207</v>
+        <v>725.0763355605663</v>
       </c>
       <c r="Y36" t="n">
-        <v>432.3654033289712</v>
+        <v>519.3478997842168</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="J37" t="n">
         <v>21.9427045873282</v>
@@ -7120,25 +7122,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.6719412882472</v>
+        <v>174.5255782749933</v>
       </c>
       <c r="C38" t="n">
-        <v>266.6719412882472</v>
+        <v>174.5255782749933</v>
       </c>
       <c r="D38" t="n">
-        <v>266.6719412882472</v>
+        <v>174.5255782749933</v>
       </c>
       <c r="E38" t="n">
-        <v>266.6719412882472</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F38" t="n">
-        <v>266.6719412882472</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G38" t="n">
-        <v>266.6719412882472</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H38" t="n">
-        <v>229.2399852622009</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L38" t="n">
         <v>345.6915471007955</v>
@@ -7187,37 +7189,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>953.8515700725947</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="S38" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725949</v>
       </c>
       <c r="T38" t="n">
-        <v>520.6898842948577</v>
+        <v>728.6342799752006</v>
       </c>
       <c r="U38" t="n">
-        <v>266.6719412882472</v>
+        <v>728.6342799752006</v>
       </c>
       <c r="V38" t="n">
-        <v>266.6719412882472</v>
+        <v>728.6342799752006</v>
       </c>
       <c r="W38" t="n">
-        <v>266.6719412882472</v>
+        <v>728.6342799752006</v>
       </c>
       <c r="X38" t="n">
-        <v>266.6719412882472</v>
+        <v>451.579929125097</v>
       </c>
       <c r="Y38" t="n">
-        <v>266.6719412882472</v>
+        <v>174.5255782749933</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>266.9295502162631</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>266.9295502162631</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>266.9295502162631</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>630.6851405540922</v>
+        <v>277.9660032696081</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O39" t="n">
-        <v>898.564759531413</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>403.5026004348891</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V39" t="n">
-        <v>266.9295502162631</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>266.9295502162631</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>266.9295502162631</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>266.9295502162631</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L40" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M40" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N40" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O40" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P40" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R40" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S40" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T40" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U40" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V40" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="C41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="D41" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="E41" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7421,40 +7423,40 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P41" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q41" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U41" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="W41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="X41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="Y41" t="n">
-        <v>21.9427045873282</v>
+        <v>853.7716936371971</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>225.8335237461774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
         <v>21.9427045873282</v>
@@ -7488,25 +7490,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M42" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N42" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O42" t="n">
-        <v>817.386591515115</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P42" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7521,19 +7523,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>383.4430527433227</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>383.4430527433227</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7575,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M43" t="n">
         <v>108.7246574309869</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>676.7972192224911</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="C44" t="n">
-        <v>676.7972192224911</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="D44" t="n">
-        <v>676.7972192224911</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>399.7428683723875</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F44" t="n">
-        <v>399.7428683723875</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G44" t="n">
-        <v>122.688517522284</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H44" t="n">
-        <v>22.60864108688619</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>22.60864108688619</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
-        <v>143.2410926494319</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L44" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1689795623907</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>676.7972192224911</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>676.7972192224911</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>517.8373438740774</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>345.0842287958946</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>197.4959221548385</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
         <v>21.9427045873282</v>
@@ -7725,25 +7727,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L45" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M45" t="n">
-        <v>476.5364731046047</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N45" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O45" t="n">
-        <v>1015.957061350112</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P45" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
         <v>1097.13522936641</v>
@@ -7758,19 +7760,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>890.6083307719874</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
-        <v>684.8798949956379</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7810,7 +7812,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
         <v>108.7246574309869</v>
@@ -7834,13 +7836,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -8064,7 +8066,7 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8076,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>202.8059645120437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8298,22 +8300,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>249.0736414352243</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8456,7 +8458,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L8" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M8" t="n">
         <v>467.4940748325458</v>
@@ -8532,22 +8534,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>171.8759034615937</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8772,22 +8774,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>281.0645842729788</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>238.5511276425064</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,16 +9005,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
         <v>134.395403</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>397.1900756823314</v>
       </c>
       <c r="N15" t="n">
         <v>402.3419766228525</v>
@@ -9021,10 +9023,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9182,7 +9184,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9249,10 +9251,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>354.7721594580186</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>262.2514961538889</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9486,7 +9488,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>362.2401502120437</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N21" t="n">
         <v>128.05816928125</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>142.4213567781431</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9951,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
         <v>134.395403</v>
@@ -9960,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635231</v>
       </c>
       <c r="N27" t="n">
         <v>402.3419766228525</v>
@@ -9969,7 +9971,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10191,22 +10193,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>221.1367956094978</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N30" t="n">
-        <v>402.3419766228525</v>
+        <v>270.542070480261</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10425,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10434,16 +10436,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
         <v>136.482229733871</v>
@@ -10662,19 +10664,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>221.1367956094978</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,19 +10901,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>354.7721594580186</v>
+        <v>146.6066368521111</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10920,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,19 +11138,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N42" t="n">
-        <v>128.6161323053679</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,7 +11299,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11373,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11382,19 +11384,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>199.0664347615666</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
-        <v>92.70128833734015</v>
+        <v>198.8278852552731</v>
       </c>
       <c r="D2" t="n">
-        <v>205.54768780381</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
@@ -22623,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>50.59846856447034</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>96.70141132321532</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -22723,7 +22725,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22790,19 +22792,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>347.4124432514906</v>
       </c>
       <c r="F5" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
         <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>55.46718390731331</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22875,10 +22877,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>52.21703279795285</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -22917,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>104.1537809005699</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23072,19 +23074,19 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>9.888586070061081</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>309.1000129254336</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>112.4032644096333</v>
@@ -23103,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50.59846856447034</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>85.54114061652112</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,7 +23159,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -23200,10 +23202,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -23242,7 +23244,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.7486738677682</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23306,25 +23308,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>187.2408914134764</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>240.6811573073703</v>
       </c>
       <c r="X11" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23343,19 +23345,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>30.12746102708336</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>15.53789883968815</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23428,13 +23430,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
         <v>88.83884492777894</v>
@@ -23461,7 +23463,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2365678255776</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>142.1272324849118</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23504,10 +23506,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
@@ -23549,19 +23551,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>76.2463096589521</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="15">
@@ -23580,10 +23582,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>36.34930087737965</v>
       </c>
       <c r="G15" t="n">
         <v>136.0232102050423</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.24743635262973</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>63.68426508357422</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
         <v>14.77440971783335</v>
@@ -23701,7 +23703,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T16" t="n">
         <v>228.3324659915077</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>115.0155552481151</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -23753,7 +23755,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>187.9001685480388</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>96.5777917895669</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23862,10 +23864,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>44.95881684231247</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23944,10 +23946,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U19" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.4348476484181</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>100.4207186257561</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24048,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24063,7 +24065,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>18.2977345361904</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>23.97279119369733</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S22" t="n">
         <v>222.3574069614225</v>
@@ -24187,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24218,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
-        <v>186.600247558061</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
         <v>0.6592771345624158</v>
@@ -24257,7 +24259,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
         <v>251.4777635765444</v>
@@ -24269,7 +24271,7 @@
         <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24297,10 +24299,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>86.9829129610093</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>21.42048887146447</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24443,22 +24445,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24500,16 +24502,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="27">
@@ -24528,13 +24530,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
@@ -24573,10 +24575,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>44.16833865241995</v>
       </c>
       <c r="U27" t="n">
-        <v>77.67753132133097</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24588,7 +24590,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24651,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
         <v>228.3324659915077</v>
@@ -24661,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24680,25 +24682,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488042</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>163.794203793003</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
         <v>0.6592771345624158</v>
@@ -24731,10 +24733,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24746,7 +24748,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9.682849746515359</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24813,16 +24815,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>206.2808700598036</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.170564849075419</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24895,7 +24897,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24917,7 +24919,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>54.24941418091686</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W32" t="n">
-        <v>176.6670282847081</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25044,13 +25046,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>44.95881684231239</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>15.53789883968807</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.8895889301081</v>
@@ -25126,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>278.9935876334273</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25169,13 +25171,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.9651171964204</v>
@@ -25214,13 +25216,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>90.18725302410103</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>34.50585664896181</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
@@ -25293,7 +25295,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -25333,7 +25335,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
-        <v>88.83884492777894</v>
+        <v>77.26227121737291</v>
       </c>
       <c r="K37" t="n">
         <v>14.77440971783335</v>
@@ -25360,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25397,7 +25399,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>232.7202679390614</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25406,13 +25408,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0862669223676</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25454,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="39">
@@ -25476,7 +25478,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -25488,7 +25490,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V39" t="n">
-        <v>96.70141132321532</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25602,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T40" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U40" t="n">
         <v>286.0522703910642</v>
@@ -25609,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25631,13 +25633,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>86.25127718860955</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25713,13 +25715,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>77.6775313213309</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H42" t="n">
         <v>110.4625155221328</v>
@@ -25761,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>142.7865096194741</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E44" t="n">
-        <v>108.834228413685</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>239.0648257171096</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
         <v>205.8649517235392</v>
@@ -25925,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>136.0232102050423</v>
@@ -25998,13 +26000,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
         <v>286.0522703910642</v>
@@ -26083,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585822</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585822</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>484895.9467585822</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>484895.9467585823</v>
+        <v>484895.9467585821</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585822</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>484895.9467585822</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>484895.9467585822</v>
+        <v>484895.9467585821</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>484895.9467585823</v>
+        <v>484895.9467585821</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>484895.9467585822</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>484895.9467585821</v>
+        <v>484895.9467585823</v>
       </c>
     </row>
   </sheetData>
@@ -26323,10 +26325,10 @@
         <v>121223.9866896455</v>
       </c>
       <c r="F2" t="n">
+        <v>121223.9866896454</v>
+      </c>
+      <c r="G2" t="n">
         <v>121223.9866896455</v>
-      </c>
-      <c r="G2" t="n">
-        <v>121223.9866896454</v>
       </c>
       <c r="H2" t="n">
         <v>121223.9866896455</v>
@@ -26347,7 +26349,7 @@
         <v>121223.9866896454</v>
       </c>
       <c r="N2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="O2" t="n">
         <v>121223.9866896454</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808624</v>
+        <v>71764.71248808625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="G4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="H4" t="n">
         <v>205.3193574873218</v>
@@ -26439,7 +26441,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="J4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="K4" t="n">
         <v>205.3193574873218</v>
@@ -26451,13 +26453,13 @@
         <v>205.3193574873218</v>
       </c>
       <c r="N4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="O4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="P4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
     </row>
     <row r="5">
@@ -26522,13 +26524,13 @@
         <v>-21204.20052195118</v>
       </c>
       <c r="C6" t="n">
+        <v>70714.61184578868</v>
+      </c>
+      <c r="D6" t="n">
         <v>70714.61184578871</v>
       </c>
-      <c r="D6" t="n">
-        <v>70714.61184578869</v>
-      </c>
       <c r="E6" t="n">
-        <v>104342.2118457887</v>
+        <v>104342.2118457888</v>
       </c>
       <c r="F6" t="n">
         <v>104342.2118457887</v>
@@ -26537,25 +26539,25 @@
         <v>104342.2118457887</v>
       </c>
       <c r="H6" t="n">
-        <v>104342.2118457888</v>
+        <v>104342.2118457887</v>
       </c>
       <c r="I6" t="n">
         <v>104342.2118457887</v>
       </c>
       <c r="J6" t="n">
-        <v>32577.49935770241</v>
+        <v>32577.49935770244</v>
       </c>
       <c r="K6" t="n">
         <v>104342.2118457887</v>
       </c>
       <c r="L6" t="n">
-        <v>104342.2118457887</v>
+        <v>104342.2118457888</v>
       </c>
       <c r="M6" t="n">
         <v>104342.2118457887</v>
       </c>
       <c r="N6" t="n">
-        <v>104342.2118457888</v>
+        <v>104342.2118457887</v>
       </c>
       <c r="O6" t="n">
         <v>104342.2118457887</v>
@@ -34784,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -34796,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.32373477817266</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>110.4929583612564</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35178,10 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L8" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M8" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N8" t="n">
         <v>231.1630643817873</v>
@@ -35252,22 +35254,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35492,22 +35494,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.4839011990109</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>110.4929583612564</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2838073416025</v>
+        <v>258.6093926083635</v>
       </c>
       <c r="N15" t="n">
         <v>274.2838073416025</v>
@@ -35741,10 +35743,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>216.1914763840507</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>134.1933268726389</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -35981,7 +35983,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36206,7 +36208,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>223.6594671380758</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>8.025953778143117</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O24" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="N27" t="n">
         <v>274.2838073416025</v>
@@ -36689,7 +36691,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
-        <v>204.4954085367307</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
         <v>242.9064974359549</v>
@@ -36911,22 +36913,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>82.55611253552989</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2838073416025</v>
+        <v>142.483901199011</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>140.6484434930818</v>
@@ -37154,16 +37156,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>216.1914763840507</v>
+        <v>8.025953778143265</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37640,7 +37642,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2838073416025</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5579630241179461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -37877,7 +37879,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
         <v>204.4954085367308</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>140.6484434930818</v>
@@ -38102,19 +38104,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>60.48575168759873</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
